--- a/coordinates.xlsx
+++ b/coordinates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>label</t>
   </si>
@@ -40,21 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>A-0</t>
-  </si>
-  <si>
-    <t>A#-0</t>
-  </si>
-  <si>
-    <t>B-0</t>
-  </si>
-  <si>
-    <t>C-1</t>
-  </si>
-  <si>
-    <t>C#-1</t>
-  </si>
-  <si>
     <t>D-1</t>
   </si>
   <si>
@@ -275,33 +260,6 @@
   </si>
   <si>
     <t>D#-7</t>
-  </si>
-  <si>
-    <t>E-7</t>
-  </si>
-  <si>
-    <t>F-7</t>
-  </si>
-  <si>
-    <t>F#-7</t>
-  </si>
-  <si>
-    <t>G-7</t>
-  </si>
-  <si>
-    <t>G#-7</t>
-  </si>
-  <si>
-    <t>A-7</t>
-  </si>
-  <si>
-    <t>A#-7</t>
-  </si>
-  <si>
-    <t>B-7</t>
-  </si>
-  <si>
-    <t>C-8</t>
   </si>
 </sst>
 </file>
@@ -659,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,28 +651,28 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2543</v>
+        <v>2179</v>
       </c>
       <c r="D2">
-        <v>95.34014942980731</v>
+        <v>1.489674162459844</v>
       </c>
       <c r="E2">
         <v>342</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>441</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -722,28 +680,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1944</v>
+        <v>2694</v>
       </c>
       <c r="D3">
-        <v>1.215534979423868</v>
+        <v>104.8069784706756</v>
       </c>
       <c r="E3">
         <v>342</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <v>441</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -751,28 +709,28 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>2063</v>
+        <v>2079</v>
       </c>
       <c r="D4">
-        <v>101.1502666020359</v>
+        <v>102.4973544973545</v>
       </c>
       <c r="E4">
         <v>342</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>441</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -780,28 +738,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>1856</v>
+        <v>2202</v>
       </c>
       <c r="D5">
-        <v>98.90086206896552</v>
+        <v>1.493188010899183</v>
       </c>
       <c r="E5">
         <v>342</v>
       </c>
       <c r="F5">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G5">
         <v>441</v>
       </c>
       <c r="H5">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -809,28 +767,28 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1859</v>
+        <v>2226</v>
       </c>
       <c r="D6">
-        <v>1.416352877891339</v>
+        <v>103.5026954177898</v>
       </c>
       <c r="E6">
         <v>342</v>
       </c>
       <c r="F6">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G6">
         <v>441</v>
       </c>
       <c r="H6">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -838,28 +796,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>1986</v>
+        <v>2160</v>
       </c>
       <c r="D7">
-        <v>100.6268882175227</v>
+        <v>1.115740740740741</v>
       </c>
       <c r="E7">
         <v>342</v>
       </c>
       <c r="F7">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G7">
         <v>441</v>
       </c>
       <c r="H7">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -867,28 +825,28 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>1837</v>
+        <v>2268</v>
       </c>
       <c r="D8">
-        <v>1.445291235710397</v>
+        <v>106.5467372134039</v>
       </c>
       <c r="E8">
         <v>342</v>
       </c>
       <c r="F8">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G8">
         <v>441</v>
       </c>
       <c r="H8">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -896,28 +854,28 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>2262</v>
+        <v>2130</v>
       </c>
       <c r="D9">
-        <v>105.0114942528736</v>
+        <v>1.646009389671361</v>
       </c>
       <c r="E9">
         <v>342</v>
       </c>
       <c r="F9">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G9">
         <v>441</v>
       </c>
       <c r="H9">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -925,28 +883,28 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>1679</v>
+        <v>2456</v>
       </c>
       <c r="D10">
-        <v>103.9976176295414</v>
+        <v>112.6738599348534</v>
       </c>
       <c r="E10">
         <v>342</v>
       </c>
       <c r="F10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G10">
         <v>441</v>
       </c>
       <c r="H10">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
@@ -954,28 +912,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>1774</v>
+        <v>2690</v>
       </c>
       <c r="D11">
-        <v>1.471815107102593</v>
+        <v>110.5639405204461</v>
       </c>
       <c r="E11">
         <v>342</v>
       </c>
       <c r="F11">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G11">
         <v>441</v>
       </c>
       <c r="H11">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -983,28 +941,28 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>1944</v>
+        <v>2042</v>
       </c>
       <c r="D12">
-        <v>103.4048353909465</v>
+        <v>1.540646425073458</v>
       </c>
       <c r="E12">
         <v>342</v>
       </c>
       <c r="F12">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G12">
         <v>441</v>
       </c>
       <c r="H12">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -1012,28 +970,28 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>1651</v>
+        <v>2735</v>
       </c>
       <c r="D13">
-        <v>1.128407026044821</v>
+        <v>108.1330895795247</v>
       </c>
       <c r="E13">
         <v>342</v>
       </c>
       <c r="F13">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G13">
         <v>441</v>
       </c>
       <c r="H13">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
@@ -1041,28 +999,28 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>2023</v>
+        <v>2080</v>
       </c>
       <c r="D14">
-        <v>104.6075135936728</v>
+        <v>2.010576923076923</v>
       </c>
       <c r="E14">
         <v>342</v>
       </c>
       <c r="F14">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G14">
         <v>441</v>
       </c>
       <c r="H14">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
@@ -1070,28 +1028,28 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>1728</v>
+        <v>2767</v>
       </c>
       <c r="D15">
-        <v>1.574652777777778</v>
+        <v>114.0831225153596</v>
       </c>
       <c r="E15">
         <v>342</v>
       </c>
       <c r="F15">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G15">
         <v>441</v>
       </c>
       <c r="H15">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="I15" t="s">
         <v>21</v>
@@ -1099,28 +1057,28 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>2131</v>
+        <v>2490</v>
       </c>
       <c r="D16">
-        <v>112.1248240262787</v>
+        <v>111.204016064257</v>
       </c>
       <c r="E16">
         <v>342</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="G16">
         <v>441</v>
       </c>
       <c r="H16">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
@@ -1128,28 +1086,28 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>2193</v>
+        <v>2007</v>
       </c>
       <c r="D17">
-        <v>111.8472412220702</v>
+        <v>1.737917289486796</v>
       </c>
       <c r="E17">
         <v>342</v>
       </c>
       <c r="F17">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="G17">
         <v>441</v>
       </c>
       <c r="H17">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
@@ -1157,28 +1115,28 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>1620</v>
+        <v>2611</v>
       </c>
       <c r="D18">
-        <v>1.529012345679012</v>
+        <v>106.5898123324397</v>
       </c>
       <c r="E18">
         <v>342</v>
       </c>
       <c r="F18">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="G18">
         <v>441</v>
       </c>
       <c r="H18">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="I18" t="s">
         <v>24</v>
@@ -1186,28 +1144,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>2331</v>
+        <v>2087</v>
       </c>
       <c r="D19">
-        <v>109.1964821964822</v>
+        <v>1.868711068519406</v>
       </c>
       <c r="E19">
         <v>342</v>
       </c>
       <c r="F19">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="G19">
         <v>441</v>
       </c>
       <c r="H19">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="I19" t="s">
         <v>25</v>
@@ -1215,28 +1173,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>1637</v>
+        <v>2545</v>
       </c>
       <c r="D20">
-        <v>1.845448992058644</v>
+        <v>107.8275049115914</v>
       </c>
       <c r="E20">
         <v>342</v>
       </c>
       <c r="F20">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G20">
         <v>441</v>
       </c>
       <c r="H20">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="I20" t="s">
         <v>26</v>
@@ -1244,28 +1202,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>2378</v>
+        <v>2044</v>
       </c>
       <c r="D21">
-        <v>112.1791421362489</v>
+        <v>1.860567514677104</v>
       </c>
       <c r="E21">
         <v>342</v>
       </c>
       <c r="F21">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G21">
         <v>441</v>
       </c>
       <c r="H21">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="I21" t="s">
         <v>27</v>
@@ -1273,28 +1231,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>2151</v>
+        <v>2530</v>
       </c>
       <c r="D22">
-        <v>109.975360297536</v>
+        <v>111.4782608695652</v>
       </c>
       <c r="E22">
         <v>342</v>
       </c>
       <c r="F22">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G22">
         <v>441</v>
       </c>
       <c r="H22">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="I22" t="s">
         <v>28</v>
@@ -1302,28 +1260,28 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>1554</v>
+        <v>2781</v>
       </c>
       <c r="D23">
-        <v>1.702059202059202</v>
+        <v>110.1197411003236</v>
       </c>
       <c r="E23">
         <v>342</v>
       </c>
       <c r="F23">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G23">
         <v>441</v>
       </c>
       <c r="H23">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="I23" t="s">
         <v>29</v>
@@ -1331,28 +1289,28 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>2135</v>
+        <v>2097</v>
       </c>
       <c r="D24">
-        <v>109.5531615925059</v>
+        <v>1.827372436814497</v>
       </c>
       <c r="E24">
         <v>342</v>
       </c>
       <c r="F24">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G24">
         <v>441</v>
       </c>
       <c r="H24">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="I24" t="s">
         <v>30</v>
@@ -1360,28 +1318,28 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>1616</v>
+        <v>2795</v>
       </c>
       <c r="D25">
-        <v>1.920173267326733</v>
+        <v>106.6500894454383</v>
       </c>
       <c r="E25">
         <v>342</v>
       </c>
       <c r="F25">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="G25">
         <v>441</v>
       </c>
       <c r="H25">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="I25" t="s">
         <v>31</v>
@@ -1389,28 +1347,28 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>1971</v>
+        <v>2061</v>
       </c>
       <c r="D26">
-        <v>110.4337899543379</v>
+        <v>1.948083454633673</v>
       </c>
       <c r="E26">
         <v>342</v>
       </c>
       <c r="F26">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="G26">
         <v>441</v>
       </c>
       <c r="H26">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
@@ -1418,28 +1376,28 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27">
-        <v>1619</v>
+        <v>2714</v>
       </c>
       <c r="D27">
-        <v>1.735639283508339</v>
+        <v>109.1930729550479</v>
       </c>
       <c r="E27">
         <v>342</v>
       </c>
       <c r="F27">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G27">
         <v>441</v>
       </c>
       <c r="H27">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="I27" t="s">
         <v>33</v>
@@ -1447,28 +1405,28 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
-        <v>2089</v>
+        <v>2505</v>
       </c>
       <c r="D28">
-        <v>113.1158449018669</v>
+        <v>108.6327345309381</v>
       </c>
       <c r="E28">
         <v>342</v>
       </c>
       <c r="F28">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="G28">
         <v>441</v>
       </c>
       <c r="H28">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="I28" t="s">
         <v>34</v>
@@ -1476,28 +1434,28 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29">
-        <v>2357</v>
+        <v>2033</v>
       </c>
       <c r="D29">
-        <v>110.8044123886296</v>
+        <v>1.624692572552878</v>
       </c>
       <c r="E29">
         <v>342</v>
       </c>
       <c r="F29">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="G29">
         <v>441</v>
       </c>
       <c r="H29">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="I29" t="s">
         <v>35</v>
@@ -1505,28 +1463,28 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>1632</v>
+        <v>2546</v>
       </c>
       <c r="D30">
-        <v>1.682598039215686</v>
+        <v>105.5997643362137</v>
       </c>
       <c r="E30">
         <v>342</v>
       </c>
       <c r="F30">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="G30">
         <v>441</v>
       </c>
       <c r="H30">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="I30" t="s">
         <v>36</v>
@@ -1534,28 +1492,28 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>2461</v>
+        <v>1992</v>
       </c>
       <c r="D31">
-        <v>106.4136529865908</v>
+        <v>1.647590361445783</v>
       </c>
       <c r="E31">
         <v>342</v>
       </c>
       <c r="F31">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="G31">
         <v>441</v>
       </c>
       <c r="H31">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="I31" t="s">
         <v>37</v>
@@ -1563,28 +1521,28 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32">
-        <v>1519</v>
+        <v>2585</v>
       </c>
       <c r="D32">
-        <v>1.766951942067149</v>
+        <v>104.7040618955513</v>
       </c>
       <c r="E32">
         <v>342</v>
       </c>
       <c r="F32">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G32">
         <v>441</v>
       </c>
       <c r="H32">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="I32" t="s">
         <v>38</v>
@@ -1592,28 +1550,28 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>2300</v>
+        <v>1897</v>
       </c>
       <c r="D33">
-        <v>110.9026086956522</v>
+        <v>1.870848708487085</v>
       </c>
       <c r="E33">
         <v>342</v>
       </c>
       <c r="F33">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="G33">
         <v>441</v>
       </c>
       <c r="H33">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="I33" t="s">
         <v>39</v>
@@ -1621,28 +1579,28 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>2136</v>
+        <v>2585</v>
       </c>
       <c r="D34">
-        <v>108.5908239700374</v>
+        <v>106.1539651837524</v>
       </c>
       <c r="E34">
         <v>342</v>
       </c>
       <c r="F34">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G34">
         <v>441</v>
       </c>
       <c r="H34">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="I34" t="s">
         <v>40</v>
@@ -1650,28 +1608,28 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
-        <v>1457</v>
+        <v>2754</v>
       </c>
       <c r="D35">
-        <v>1.328071379547014</v>
+        <v>109.1016702977487</v>
       </c>
       <c r="E35">
         <v>342</v>
       </c>
       <c r="F35">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G35">
         <v>441</v>
       </c>
       <c r="H35">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="I35" t="s">
         <v>41</v>
@@ -1679,28 +1637,28 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36">
-        <v>2177</v>
+        <v>2007</v>
       </c>
       <c r="D36">
-        <v>105.8456591639871</v>
+        <v>1.203288490284006</v>
       </c>
       <c r="E36">
         <v>342</v>
       </c>
       <c r="F36">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="G36">
         <v>441</v>
       </c>
       <c r="H36">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="I36" t="s">
         <v>42</v>
@@ -1708,28 +1666,28 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37">
-        <v>1551</v>
+        <v>2807</v>
       </c>
       <c r="D37">
-        <v>1.597034171502257</v>
+        <v>105.9918061987887</v>
       </c>
       <c r="E37">
         <v>342</v>
       </c>
       <c r="F37">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="G37">
         <v>441</v>
       </c>
       <c r="H37">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="I37" t="s">
         <v>43</v>
@@ -1737,28 +1695,28 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38">
-        <v>2129</v>
+        <v>2045</v>
       </c>
       <c r="D38">
-        <v>106.7961484264913</v>
+        <v>1.615647921760391</v>
       </c>
       <c r="E38">
         <v>342</v>
       </c>
       <c r="F38">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G38">
         <v>441</v>
       </c>
       <c r="H38">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="I38" t="s">
         <v>44</v>
@@ -1766,28 +1724,28 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39">
-        <v>1469</v>
+        <v>2624</v>
       </c>
       <c r="D39">
-        <v>1.778761061946903</v>
+        <v>109.2621951219512</v>
       </c>
       <c r="E39">
         <v>342</v>
       </c>
       <c r="F39">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="G39">
         <v>441</v>
       </c>
       <c r="H39">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="I39" t="s">
         <v>45</v>
@@ -1795,28 +1753,28 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40">
-        <v>2156</v>
+        <v>2607</v>
       </c>
       <c r="D40">
-        <v>107.2564935064935</v>
+        <v>107.5761411584196</v>
       </c>
       <c r="E40">
         <v>342</v>
       </c>
       <c r="F40">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="G40">
         <v>441</v>
       </c>
       <c r="H40">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="I40" t="s">
         <v>46</v>
@@ -1824,28 +1782,28 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41">
-        <v>2289</v>
+        <v>2070</v>
       </c>
       <c r="D41">
-        <v>110.872870249017</v>
+        <v>1.632367149758454</v>
       </c>
       <c r="E41">
         <v>342</v>
       </c>
       <c r="F41">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="G41">
         <v>441</v>
       </c>
       <c r="H41">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="I41" t="s">
         <v>47</v>
@@ -1853,28 +1811,28 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42">
-        <v>1537</v>
+        <v>2547</v>
       </c>
       <c r="D42">
-        <v>1.039687703318152</v>
+        <v>104.9968590498626</v>
       </c>
       <c r="E42">
         <v>342</v>
       </c>
       <c r="F42">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="G42">
         <v>441</v>
       </c>
       <c r="H42">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="I42" t="s">
         <v>48</v>
@@ -1882,28 +1840,28 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43">
-        <v>2452</v>
+        <v>2095</v>
       </c>
       <c r="D43">
-        <v>104.9677814029364</v>
+        <v>1.555131264916468</v>
       </c>
       <c r="E43">
         <v>342</v>
       </c>
       <c r="F43">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="G43">
         <v>441</v>
       </c>
       <c r="H43">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="I43" t="s">
         <v>49</v>
@@ -1911,28 +1869,28 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44">
-        <v>1556</v>
+        <v>2465</v>
       </c>
       <c r="D44">
-        <v>1.469794344473008</v>
+        <v>103.5817444219067</v>
       </c>
       <c r="E44">
         <v>342</v>
       </c>
       <c r="F44">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G44">
         <v>441</v>
       </c>
       <c r="H44">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="I44" t="s">
         <v>50</v>
@@ -1940,28 +1898,28 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45">
-        <v>2423</v>
+        <v>2135</v>
       </c>
       <c r="D45">
-        <v>104.3726784977301</v>
+        <v>1.659016393442623</v>
       </c>
       <c r="E45">
         <v>342</v>
       </c>
       <c r="F45">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="G45">
         <v>441</v>
       </c>
       <c r="H45">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="I45" t="s">
         <v>51</v>
@@ -1969,28 +1927,28 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46">
-        <v>2108</v>
+        <v>2447</v>
       </c>
       <c r="D46">
-        <v>108</v>
+        <v>105.6358806702084</v>
       </c>
       <c r="E46">
         <v>342</v>
       </c>
       <c r="F46">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="G46">
         <v>441</v>
       </c>
       <c r="H46">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="I46" t="s">
         <v>52</v>
@@ -1998,28 +1956,28 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47">
-        <v>1535</v>
+        <v>2794</v>
       </c>
       <c r="D47">
-        <v>1.597394136807817</v>
+        <v>108.7687902648533</v>
       </c>
       <c r="E47">
         <v>342</v>
       </c>
       <c r="F47">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G47">
         <v>441</v>
       </c>
       <c r="H47">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="I47" t="s">
         <v>53</v>
@@ -2027,28 +1985,28 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48">
-        <v>2141</v>
+        <v>2039</v>
       </c>
       <c r="D48">
-        <v>107.1676786548342</v>
+        <v>2.14271701814615</v>
       </c>
       <c r="E48">
         <v>342</v>
       </c>
       <c r="F48">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="G48">
         <v>441</v>
       </c>
       <c r="H48">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="I48" t="s">
         <v>54</v>
@@ -2056,28 +2014,28 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49">
-        <v>1530</v>
+        <v>2754</v>
       </c>
       <c r="D49">
-        <v>1.508496732026144</v>
+        <v>104.1717501815541</v>
       </c>
       <c r="E49">
         <v>342</v>
       </c>
       <c r="F49">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="G49">
         <v>441</v>
       </c>
       <c r="H49">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="I49" t="s">
         <v>55</v>
@@ -2085,28 +2043,28 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50">
-        <v>2225</v>
+        <v>2189</v>
       </c>
       <c r="D50">
-        <v>102.5991011235955</v>
+        <v>1.623572407492005</v>
       </c>
       <c r="E50">
         <v>342</v>
       </c>
       <c r="F50">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="G50">
         <v>441</v>
       </c>
       <c r="H50">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="I50" t="s">
         <v>56</v>
@@ -2114,28 +2072,28 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51">
-        <v>1690</v>
+        <v>2831</v>
       </c>
       <c r="D51">
-        <v>1.481065088757396</v>
+        <v>100.6064994701519</v>
       </c>
       <c r="E51">
         <v>342</v>
       </c>
       <c r="F51">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="G51">
         <v>441</v>
       </c>
       <c r="H51">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="I51" t="s">
         <v>57</v>
@@ -2143,28 +2101,28 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52">
-        <v>2091</v>
+        <v>2509</v>
       </c>
       <c r="D52">
-        <v>105.1372549019608</v>
+        <v>106.1952969310482</v>
       </c>
       <c r="E52">
         <v>342</v>
       </c>
       <c r="F52">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="G52">
         <v>441</v>
       </c>
       <c r="H52">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="I52" t="s">
         <v>58</v>
@@ -2172,28 +2130,28 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53">
-        <v>2325</v>
+        <v>2135</v>
       </c>
       <c r="D53">
-        <v>109.4864516129032</v>
+        <v>2.368149882903981</v>
       </c>
       <c r="E53">
         <v>342</v>
       </c>
       <c r="F53">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="G53">
         <v>441</v>
       </c>
       <c r="H53">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="I53" t="s">
         <v>59</v>
@@ -2201,28 +2159,28 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54">
-        <v>1620</v>
+        <v>2519</v>
       </c>
       <c r="D54">
-        <v>1.912345679012346</v>
+        <v>101.3080587534736</v>
       </c>
       <c r="E54">
         <v>342</v>
       </c>
       <c r="F54">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="G54">
         <v>441</v>
       </c>
       <c r="H54">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="I54" t="s">
         <v>60</v>
@@ -2230,28 +2188,28 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55">
-        <v>2463</v>
+        <v>2144</v>
       </c>
       <c r="D55">
-        <v>102.886317498985</v>
+        <v>2.090951492537314</v>
       </c>
       <c r="E55">
         <v>342</v>
       </c>
       <c r="F55">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="G55">
         <v>441</v>
       </c>
       <c r="H55">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="I55" t="s">
         <v>61</v>
@@ -2259,28 +2217,28 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56">
-        <v>1682</v>
+        <v>2483</v>
       </c>
       <c r="D56">
-        <v>1.568370986920333</v>
+        <v>98.54651631091421</v>
       </c>
       <c r="E56">
         <v>342</v>
       </c>
       <c r="F56">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="G56">
         <v>441</v>
       </c>
       <c r="H56">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="I56" t="s">
         <v>62</v>
@@ -2288,28 +2246,28 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57">
-        <v>2348</v>
+        <v>2257</v>
       </c>
       <c r="D57">
-        <v>102.3177172061329</v>
+        <v>1.893221089942401</v>
       </c>
       <c r="E57">
         <v>342</v>
       </c>
       <c r="F57">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="G57">
         <v>441</v>
       </c>
       <c r="H57">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="I57" t="s">
         <v>63</v>
@@ -2317,28 +2275,28 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58">
-        <v>2199</v>
+        <v>2338</v>
       </c>
       <c r="D58">
-        <v>105.2760345611642</v>
+        <v>97.84345594525236</v>
       </c>
       <c r="E58">
         <v>342</v>
       </c>
       <c r="F58">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="G58">
         <v>441</v>
       </c>
       <c r="H58">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="I58" t="s">
         <v>64</v>
@@ -2346,28 +2304,28 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59">
-        <v>1649</v>
+        <v>2824</v>
       </c>
       <c r="D59">
-        <v>2.329896907216495</v>
+        <v>104.4936260623229</v>
       </c>
       <c r="E59">
         <v>342</v>
       </c>
       <c r="F59">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="G59">
         <v>441</v>
       </c>
       <c r="H59">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="I59" t="s">
         <v>65</v>
@@ -2375,28 +2333,28 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60">
-        <v>2199</v>
+        <v>2102</v>
       </c>
       <c r="D60">
-        <v>98.33469758981356</v>
+        <v>2.083729781160799</v>
       </c>
       <c r="E60">
         <v>342</v>
       </c>
       <c r="F60">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="G60">
         <v>441</v>
       </c>
       <c r="H60">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="I60" t="s">
         <v>66</v>
@@ -2404,28 +2362,28 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61">
-        <v>1664</v>
+        <v>2699</v>
       </c>
       <c r="D61">
-        <v>2.169471153846154</v>
+        <v>98.72656539459059</v>
       </c>
       <c r="E61">
         <v>342</v>
       </c>
       <c r="F61">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="G61">
         <v>441</v>
       </c>
       <c r="H61">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="I61" t="s">
         <v>67</v>
@@ -2433,28 +2391,28 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62">
-        <v>2130</v>
+        <v>2263</v>
       </c>
       <c r="D62">
-        <v>98.95258215962441</v>
+        <v>1.914714980114892</v>
       </c>
       <c r="E62">
         <v>342</v>
       </c>
       <c r="F62">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="G62">
         <v>441</v>
       </c>
       <c r="H62">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="I62" t="s">
         <v>68</v>
@@ -2462,28 +2420,28 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63">
-        <v>1724</v>
+        <v>2547</v>
       </c>
       <c r="D63">
-        <v>1.870069605568445</v>
+        <v>96.70003926187671</v>
       </c>
       <c r="E63">
         <v>342</v>
       </c>
       <c r="F63">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="G63">
         <v>441</v>
       </c>
       <c r="H63">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="I63" t="s">
         <v>69</v>
@@ -2491,28 +2449,28 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64">
-        <v>1984</v>
+        <v>2509</v>
       </c>
       <c r="D64">
-        <v>99.04939516129032</v>
+        <v>100.9170984455959</v>
       </c>
       <c r="E64">
         <v>342</v>
       </c>
       <c r="F64">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="G64">
         <v>441</v>
       </c>
       <c r="H64">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="I64" t="s">
         <v>70</v>
@@ -2520,28 +2478,28 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65">
-        <v>2339</v>
+        <v>2239</v>
       </c>
       <c r="D65">
-        <v>105.2518170158187</v>
+        <v>1.860205448861099</v>
       </c>
       <c r="E65">
         <v>342</v>
       </c>
       <c r="F65">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="G65">
         <v>441</v>
       </c>
       <c r="H65">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="I65" t="s">
         <v>71</v>
@@ -2549,28 +2507,28 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66">
-        <v>1724</v>
+        <v>2247</v>
       </c>
       <c r="D66">
-        <v>1.917053364269142</v>
+        <v>90.11748998664886</v>
       </c>
       <c r="E66">
         <v>342</v>
       </c>
       <c r="F66">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="G66">
         <v>441</v>
       </c>
       <c r="H66">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="I66" t="s">
         <v>72</v>
@@ -2578,28 +2536,28 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67">
-        <v>2342</v>
+        <v>2500</v>
       </c>
       <c r="D67">
-        <v>97.1327924850555</v>
+        <v>1.762</v>
       </c>
       <c r="E67">
         <v>342</v>
       </c>
       <c r="F67">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="G67">
         <v>441</v>
       </c>
       <c r="H67">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="I67" t="s">
         <v>73</v>
@@ -2607,28 +2565,28 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68">
-        <v>1793</v>
+        <v>2188</v>
       </c>
       <c r="D68">
-        <v>2.010596765197992</v>
+        <v>87.43281535648994</v>
       </c>
       <c r="E68">
         <v>342</v>
       </c>
       <c r="F68">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="G68">
         <v>441</v>
       </c>
       <c r="H68">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="I68" t="s">
         <v>74</v>
@@ -2636,28 +2594,28 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69">
-        <v>2072</v>
+        <v>2491</v>
       </c>
       <c r="D69">
-        <v>97.3219111969112</v>
+        <v>1.710959454034524</v>
       </c>
       <c r="E69">
         <v>342</v>
       </c>
       <c r="F69">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="G69">
         <v>441</v>
       </c>
       <c r="H69">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="I69" t="s">
         <v>75</v>
@@ -2665,28 +2623,28 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70">
-        <v>2148</v>
+        <v>2078</v>
       </c>
       <c r="D70">
-        <v>101.1578212290503</v>
+        <v>84.65591915303176</v>
       </c>
       <c r="E70">
         <v>342</v>
       </c>
       <c r="F70">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="G70">
         <v>441</v>
       </c>
       <c r="H70">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="I70" t="s">
         <v>76</v>
@@ -2694,28 +2652,28 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71">
-        <v>1824</v>
+        <v>2997</v>
       </c>
       <c r="D71">
-        <v>1.702302631578947</v>
+        <v>89.29996663329996</v>
       </c>
       <c r="E71">
         <v>342</v>
       </c>
       <c r="F71">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="G71">
         <v>441</v>
       </c>
       <c r="H71">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="I71" t="s">
         <v>77</v>
@@ -2723,28 +2681,28 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C72">
-        <v>1897</v>
+        <v>2689</v>
       </c>
       <c r="D72">
-        <v>91.24723247232473</v>
+        <v>1.560431387132763</v>
       </c>
       <c r="E72">
         <v>342</v>
       </c>
       <c r="F72">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="G72">
         <v>441</v>
       </c>
       <c r="H72">
-        <v>1028</v>
+        <v>1039</v>
       </c>
       <c r="I72" t="s">
         <v>78</v>
@@ -2752,28 +2710,28 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73">
-        <v>1922</v>
+        <v>2266</v>
       </c>
       <c r="D73">
-        <v>1.674297606659729</v>
+        <v>79.69064430714916</v>
       </c>
       <c r="E73">
         <v>342</v>
       </c>
       <c r="F73">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="G73">
         <v>441</v>
       </c>
       <c r="H73">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="I73" t="s">
         <v>79</v>
@@ -2781,28 +2739,28 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C74">
-        <v>1904</v>
+        <v>2705</v>
       </c>
       <c r="D74">
-        <v>86.76575630252101</v>
+        <v>1.453974121996303</v>
       </c>
       <c r="E74">
         <v>342</v>
       </c>
       <c r="F74">
-        <v>1044</v>
+        <v>1055</v>
       </c>
       <c r="G74">
         <v>441</v>
       </c>
       <c r="H74">
-        <v>1057</v>
+        <v>1070</v>
       </c>
       <c r="I74" t="s">
         <v>80</v>
@@ -2810,437 +2768,31 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75">
-        <v>1987</v>
+        <v>2089</v>
       </c>
       <c r="D75">
-        <v>1.675893306492199</v>
+        <v>79.4552417424605</v>
       </c>
       <c r="E75">
         <v>342</v>
       </c>
       <c r="F75">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="G75">
         <v>441</v>
       </c>
       <c r="H75">
-        <v>1072</v>
+        <v>1082</v>
       </c>
       <c r="I75" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>75</v>
-      </c>
-      <c r="C76">
-        <v>1850</v>
-      </c>
-      <c r="D76">
-        <v>83.55945945945946</v>
-      </c>
-      <c r="E76">
-        <v>342</v>
-      </c>
-      <c r="F76">
-        <v>1073</v>
-      </c>
-      <c r="G76">
-        <v>441</v>
-      </c>
-      <c r="H76">
-        <v>1085</v>
-      </c>
-      <c r="I76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>76</v>
-      </c>
-      <c r="C77">
-        <v>2501</v>
-      </c>
-      <c r="D77">
-        <v>90.0951619352259</v>
-      </c>
-      <c r="E77">
-        <v>342</v>
-      </c>
-      <c r="F77">
-        <v>1087</v>
-      </c>
-      <c r="G77">
-        <v>441</v>
-      </c>
-      <c r="H77">
-        <v>1102</v>
-      </c>
-      <c r="I77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>77</v>
-      </c>
-      <c r="C78">
-        <v>2148</v>
-      </c>
-      <c r="D78">
-        <v>1.629888268156425</v>
-      </c>
-      <c r="E78">
-        <v>342</v>
-      </c>
-      <c r="F78">
-        <v>1104</v>
-      </c>
-      <c r="G78">
-        <v>441</v>
-      </c>
-      <c r="H78">
-        <v>1118</v>
-      </c>
-      <c r="I78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>78</v>
-      </c>
-      <c r="C79">
-        <v>1940</v>
-      </c>
-      <c r="D79">
-        <v>79.87061855670103</v>
-      </c>
-      <c r="E79">
-        <v>342</v>
-      </c>
-      <c r="F79">
-        <v>1118</v>
-      </c>
-      <c r="G79">
-        <v>441</v>
-      </c>
-      <c r="H79">
-        <v>1132</v>
-      </c>
-      <c r="I79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>79</v>
-      </c>
-      <c r="C80">
-        <v>2167</v>
-      </c>
-      <c r="D80">
-        <v>1.385325334563913</v>
-      </c>
-      <c r="E80">
-        <v>342</v>
-      </c>
-      <c r="F80">
-        <v>1134</v>
-      </c>
-      <c r="G80">
-        <v>441</v>
-      </c>
-      <c r="H80">
-        <v>1148</v>
-      </c>
-      <c r="I80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>80</v>
-      </c>
-      <c r="C81">
-        <v>1714</v>
-      </c>
-      <c r="D81">
-        <v>79.98074679113185</v>
-      </c>
-      <c r="E81">
-        <v>342</v>
-      </c>
-      <c r="F81">
-        <v>1148</v>
-      </c>
-      <c r="G81">
-        <v>441</v>
-      </c>
-      <c r="H81">
-        <v>1161</v>
-      </c>
-      <c r="I81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>81</v>
-      </c>
-      <c r="C82">
-        <v>2260</v>
-      </c>
-      <c r="D82">
-        <v>84.29159292035398</v>
-      </c>
-      <c r="E82">
-        <v>342</v>
-      </c>
-      <c r="F82">
-        <v>1163</v>
-      </c>
-      <c r="G82">
-        <v>441</v>
-      </c>
-      <c r="H82">
-        <v>1176</v>
-      </c>
-      <c r="I82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>82</v>
-      </c>
-      <c r="C83">
-        <v>2262</v>
-      </c>
-      <c r="D83">
-        <v>1.599911582670203</v>
-      </c>
-      <c r="E83">
-        <v>342</v>
-      </c>
-      <c r="F83">
-        <v>1178</v>
-      </c>
-      <c r="G83">
-        <v>441</v>
-      </c>
-      <c r="H83">
-        <v>1192</v>
-      </c>
-      <c r="I83" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>83</v>
-      </c>
-      <c r="C84">
-        <v>1613</v>
-      </c>
-      <c r="D84">
-        <v>74.25976441413515</v>
-      </c>
-      <c r="E84">
-        <v>342</v>
-      </c>
-      <c r="F84">
-        <v>1192</v>
-      </c>
-      <c r="G84">
-        <v>441</v>
-      </c>
-      <c r="H84">
-        <v>1204</v>
-      </c>
-      <c r="I84" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>84</v>
-      </c>
-      <c r="C85">
-        <v>2323</v>
-      </c>
-      <c r="D85">
-        <v>1.204046491605682</v>
-      </c>
-      <c r="E85">
-        <v>342</v>
-      </c>
-      <c r="F85">
-        <v>1206</v>
-      </c>
-      <c r="G85">
-        <v>441</v>
-      </c>
-      <c r="H85">
-        <v>1221</v>
-      </c>
-      <c r="I85" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>85</v>
-      </c>
-      <c r="C86">
-        <v>1562</v>
-      </c>
-      <c r="D86">
-        <v>72.43085787451984</v>
-      </c>
-      <c r="E86">
-        <v>342</v>
-      </c>
-      <c r="F86">
-        <v>1220</v>
-      </c>
-      <c r="G86">
-        <v>441</v>
-      </c>
-      <c r="H86">
-        <v>1232</v>
-      </c>
-      <c r="I86" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>86</v>
-      </c>
-      <c r="C87">
-        <v>2231</v>
-      </c>
-      <c r="D87">
-        <v>1.139399372478709</v>
-      </c>
-      <c r="E87">
-        <v>342</v>
-      </c>
-      <c r="F87">
-        <v>1234</v>
-      </c>
-      <c r="G87">
-        <v>441</v>
-      </c>
-      <c r="H87">
-        <v>1248</v>
-      </c>
-      <c r="I87" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>87</v>
-      </c>
-      <c r="C88">
-        <v>1393</v>
-      </c>
-      <c r="D88">
-        <v>69.30868628858579</v>
-      </c>
-      <c r="E88">
-        <v>342</v>
-      </c>
-      <c r="F88">
-        <v>1248</v>
-      </c>
-      <c r="G88">
-        <v>441</v>
-      </c>
-      <c r="H88">
-        <v>1259</v>
-      </c>
-      <c r="I88" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>88</v>
-      </c>
-      <c r="C89">
-        <v>3161</v>
-      </c>
-      <c r="D89">
-        <v>75.84277127491301</v>
-      </c>
-      <c r="E89">
-        <v>342</v>
-      </c>
-      <c r="F89">
-        <v>1261</v>
-      </c>
-      <c r="G89">
-        <v>441</v>
-      </c>
-      <c r="H89">
-        <v>1279</v>
-      </c>
-      <c r="I89" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates.xlsx
+++ b/coordinates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>label</t>
   </si>
@@ -40,66 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>D-1</t>
-  </si>
-  <si>
-    <t>D#-1</t>
-  </si>
-  <si>
-    <t>E-1</t>
-  </si>
-  <si>
-    <t>F-1</t>
-  </si>
-  <si>
-    <t>F#-1</t>
-  </si>
-  <si>
-    <t>G-1</t>
-  </si>
-  <si>
-    <t>G#-1</t>
-  </si>
-  <si>
-    <t>A-1</t>
-  </si>
-  <si>
-    <t>A#-1</t>
-  </si>
-  <si>
-    <t>B-1</t>
-  </si>
-  <si>
-    <t>C-2</t>
-  </si>
-  <si>
-    <t>C#-2</t>
-  </si>
-  <si>
-    <t>D-2</t>
-  </si>
-  <si>
-    <t>D#-2</t>
-  </si>
-  <si>
-    <t>E-2</t>
-  </si>
-  <si>
-    <t>F-2</t>
-  </si>
-  <si>
-    <t>F#-2</t>
-  </si>
-  <si>
-    <t>G-2</t>
-  </si>
-  <si>
-    <t>G#-2</t>
-  </si>
-  <si>
-    <t>A-2</t>
-  </si>
-  <si>
     <t>A#-2</t>
   </si>
   <si>
@@ -260,6 +200,12 @@
   </si>
   <si>
     <t>D#-7</t>
+  </si>
+  <si>
+    <t>E-7</t>
+  </si>
+  <si>
+    <t>F-7</t>
   </si>
 </sst>
 </file>
@@ -617,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,28 +597,28 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
       <c r="C2">
-        <v>2179</v>
+        <v>2422</v>
       </c>
       <c r="D2">
-        <v>1.489674162459844</v>
+        <v>3.775805119735756</v>
       </c>
       <c r="E2">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H2">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -680,28 +626,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
       <c r="C3">
-        <v>2694</v>
+        <v>3420</v>
       </c>
       <c r="D3">
-        <v>104.8069784706756</v>
+        <v>244.5146198830409</v>
       </c>
       <c r="E3">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H3">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -709,28 +655,28 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
       <c r="C4">
-        <v>2079</v>
+        <v>3960</v>
       </c>
       <c r="D4">
-        <v>102.4973544973545</v>
+        <v>247.1984848484848</v>
       </c>
       <c r="E4">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F4">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H4">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -738,28 +684,28 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
       <c r="C5">
-        <v>2202</v>
+        <v>2725</v>
       </c>
       <c r="D5">
-        <v>1.493188010899183</v>
+        <v>2.769174311926605</v>
       </c>
       <c r="E5">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F5">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H5">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -767,28 +713,28 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
       <c r="C6">
-        <v>2226</v>
+        <v>3771</v>
       </c>
       <c r="D6">
-        <v>103.5026954177898</v>
+        <v>240.2352161230443</v>
       </c>
       <c r="E6">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F6">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G6">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H6">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -796,28 +742,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
       <c r="C7">
-        <v>2160</v>
+        <v>2827</v>
       </c>
       <c r="D7">
-        <v>1.115740740740741</v>
+        <v>3.412805093738946</v>
       </c>
       <c r="E7">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="G7">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -825,28 +771,28 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
       <c r="C8">
-        <v>2268</v>
+        <v>3780</v>
       </c>
       <c r="D8">
-        <v>106.5467372134039</v>
+        <v>248.4960317460317</v>
       </c>
       <c r="E8">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F8">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="G8">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H8">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -854,28 +800,28 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
       <c r="C9">
-        <v>2130</v>
+        <v>3419</v>
       </c>
       <c r="D9">
-        <v>1.646009389671361</v>
+        <v>249.1234279028956</v>
       </c>
       <c r="E9">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F9">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="G9">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H9">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -883,28 +829,28 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
       <c r="C10">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D10">
-        <v>112.6738599348534</v>
+        <v>0.6688391038696537</v>
       </c>
       <c r="E10">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F10">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G10">
-        <v>441</v>
+        <v>264</v>
       </c>
       <c r="H10">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
@@ -912,28 +858,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
       <c r="C11">
-        <v>2690</v>
+        <v>3639</v>
       </c>
       <c r="D11">
-        <v>110.5639405204461</v>
+        <v>240.655674635889</v>
       </c>
       <c r="E11">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F11">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G11">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H11">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -941,28 +887,28 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
       <c r="C12">
-        <v>2042</v>
+        <v>2817</v>
       </c>
       <c r="D12">
-        <v>1.540646425073458</v>
+        <v>2.875044373446929</v>
       </c>
       <c r="E12">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F12">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="G12">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H12">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -970,28 +916,28 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
       <c r="C13">
-        <v>2735</v>
+        <v>3600</v>
       </c>
       <c r="D13">
-        <v>108.1330895795247</v>
+        <v>242.135</v>
       </c>
       <c r="E13">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F13">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="G13">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H13">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
@@ -999,28 +945,28 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
       <c r="C14">
-        <v>2080</v>
+        <v>2733</v>
       </c>
       <c r="D14">
-        <v>2.010576923076923</v>
+        <v>2.727405781192828</v>
       </c>
       <c r="E14">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F14">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="G14">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H14">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
@@ -1028,28 +974,28 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
       <c r="C15">
-        <v>2767</v>
+        <v>3243</v>
       </c>
       <c r="D15">
-        <v>114.0831225153596</v>
+        <v>249.8448967005859</v>
       </c>
       <c r="E15">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F15">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="G15">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H15">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="I15" t="s">
         <v>21</v>
@@ -1057,28 +1003,28 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
       <c r="C16">
-        <v>2490</v>
+        <v>3780</v>
       </c>
       <c r="D16">
-        <v>111.204016064257</v>
+        <v>247.5992063492064</v>
       </c>
       <c r="E16">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F16">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="G16">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H16">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
@@ -1086,28 +1032,28 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
       <c r="C17">
-        <v>2007</v>
+        <v>3038</v>
       </c>
       <c r="D17">
-        <v>1.737917289486796</v>
+        <v>3.283739302172482</v>
       </c>
       <c r="E17">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F17">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="G17">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H17">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
@@ -1115,28 +1061,28 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
       <c r="C18">
-        <v>2611</v>
+        <v>3725</v>
       </c>
       <c r="D18">
-        <v>106.5898123324397</v>
+        <v>239.8628187919463</v>
       </c>
       <c r="E18">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F18">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="G18">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H18">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="I18" t="s">
         <v>24</v>
@@ -1144,28 +1090,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
       <c r="C19">
-        <v>2087</v>
+        <v>2979</v>
       </c>
       <c r="D19">
-        <v>1.868711068519406</v>
+        <v>2.907015777106412</v>
       </c>
       <c r="E19">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F19">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="G19">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H19">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="I19" t="s">
         <v>25</v>
@@ -1173,28 +1119,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
       <c r="C20">
-        <v>2545</v>
+        <v>3960</v>
       </c>
       <c r="D20">
-        <v>107.8275049115914</v>
+        <v>244.0479797979798</v>
       </c>
       <c r="E20">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F20">
-        <v>267</v>
+        <v>202</v>
       </c>
       <c r="G20">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H20">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="I20" t="s">
         <v>26</v>
@@ -1202,28 +1148,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
       <c r="C21">
-        <v>2044</v>
+        <v>3420</v>
       </c>
       <c r="D21">
-        <v>1.860567514677104</v>
+        <v>244.2809941520468</v>
       </c>
       <c r="E21">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F21">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="G21">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H21">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="I21" t="s">
         <v>27</v>
@@ -1231,28 +1177,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>22</v>
-      </c>
       <c r="C22">
-        <v>2530</v>
+        <v>2867</v>
       </c>
       <c r="D22">
-        <v>111.4782608695652</v>
+        <v>3.419951168468783</v>
       </c>
       <c r="E22">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F22">
-        <v>296</v>
+        <v>226</v>
       </c>
       <c r="G22">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H22">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="I22" t="s">
         <v>28</v>
@@ -1260,28 +1206,28 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>23</v>
-      </c>
       <c r="C23">
-        <v>2781</v>
+        <v>3596</v>
       </c>
       <c r="D23">
-        <v>110.1197411003236</v>
+        <v>238.9696885428254</v>
       </c>
       <c r="E23">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F23">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="G23">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H23">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="I23" t="s">
         <v>29</v>
@@ -1289,28 +1235,28 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>24</v>
-      </c>
       <c r="C24">
-        <v>2097</v>
+        <v>2657</v>
       </c>
       <c r="D24">
-        <v>1.827372436814497</v>
+        <v>2.340986074520135</v>
       </c>
       <c r="E24">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F24">
-        <v>327</v>
+        <v>249</v>
       </c>
       <c r="G24">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H24">
-        <v>338</v>
+        <v>257</v>
       </c>
       <c r="I24" t="s">
         <v>30</v>
@@ -1318,28 +1264,28 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
       <c r="C25">
-        <v>2795</v>
+        <v>3600</v>
       </c>
       <c r="D25">
-        <v>106.6500894454383</v>
+        <v>239.4616666666667</v>
       </c>
       <c r="E25">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F25">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="G25">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H25">
-        <v>355</v>
+        <v>269</v>
       </c>
       <c r="I25" t="s">
         <v>31</v>
@@ -1347,28 +1293,28 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>26</v>
-      </c>
       <c r="C26">
-        <v>2061</v>
+        <v>2922</v>
       </c>
       <c r="D26">
-        <v>1.948083454633673</v>
+        <v>3.707734428473648</v>
       </c>
       <c r="E26">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F26">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="G26">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H26">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
@@ -1376,28 +1322,28 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>27</v>
-      </c>
       <c r="C27">
-        <v>2714</v>
+        <v>3420</v>
       </c>
       <c r="D27">
-        <v>109.1930729550479</v>
+        <v>245.2429824561403</v>
       </c>
       <c r="E27">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F27">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="G27">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H27">
-        <v>384</v>
+        <v>291</v>
       </c>
       <c r="I27" t="s">
         <v>33</v>
@@ -1405,28 +1351,28 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>28</v>
-      </c>
       <c r="C28">
-        <v>2505</v>
+        <v>3960</v>
       </c>
       <c r="D28">
-        <v>108.6327345309381</v>
+        <v>248.2618686868687</v>
       </c>
       <c r="E28">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F28">
-        <v>386</v>
+        <v>293</v>
       </c>
       <c r="G28">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H28">
-        <v>399</v>
+        <v>304</v>
       </c>
       <c r="I28" t="s">
         <v>34</v>
@@ -1434,28 +1380,28 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>29</v>
-      </c>
       <c r="C29">
-        <v>2033</v>
+        <v>2797</v>
       </c>
       <c r="D29">
-        <v>1.624692572552878</v>
+        <v>2.813728995352163</v>
       </c>
       <c r="E29">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F29">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="G29">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H29">
-        <v>412</v>
+        <v>314</v>
       </c>
       <c r="I29" t="s">
         <v>35</v>
@@ -1463,28 +1409,28 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>30</v>
-      </c>
       <c r="C30">
-        <v>2546</v>
+        <v>3780</v>
       </c>
       <c r="D30">
-        <v>105.5997643362137</v>
+        <v>241.6973544973545</v>
       </c>
       <c r="E30">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F30">
-        <v>413</v>
+        <v>316</v>
       </c>
       <c r="G30">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H30">
-        <v>426</v>
+        <v>326</v>
       </c>
       <c r="I30" t="s">
         <v>36</v>
@@ -1492,28 +1438,28 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>31</v>
-      </c>
       <c r="C31">
-        <v>1992</v>
+        <v>2831</v>
       </c>
       <c r="D31">
-        <v>1.647590361445783</v>
+        <v>2.829388908512893</v>
       </c>
       <c r="E31">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F31">
-        <v>429</v>
+        <v>328</v>
       </c>
       <c r="G31">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H31">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="I31" t="s">
         <v>37</v>
@@ -1521,28 +1467,28 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>32</v>
-      </c>
       <c r="C32">
-        <v>2585</v>
+        <v>3866</v>
       </c>
       <c r="D32">
-        <v>104.7040618955513</v>
+        <v>245.8326435592344</v>
       </c>
       <c r="E32">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F32">
-        <v>441</v>
+        <v>338</v>
       </c>
       <c r="G32">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H32">
-        <v>454</v>
+        <v>349</v>
       </c>
       <c r="I32" t="s">
         <v>38</v>
@@ -1550,28 +1496,28 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>33</v>
-      </c>
       <c r="C33">
-        <v>1897</v>
+        <v>3240</v>
       </c>
       <c r="D33">
-        <v>1.870848708487085</v>
+        <v>250.5296296296296</v>
       </c>
       <c r="E33">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F33">
-        <v>457</v>
+        <v>351</v>
       </c>
       <c r="G33">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H33">
-        <v>467</v>
+        <v>360</v>
       </c>
       <c r="I33" t="s">
         <v>39</v>
@@ -1579,28 +1525,28 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>34</v>
-      </c>
       <c r="C34">
-        <v>2585</v>
+        <v>2774</v>
       </c>
       <c r="D34">
-        <v>106.1539651837524</v>
+        <v>2.236481614996395</v>
       </c>
       <c r="E34">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F34">
-        <v>470</v>
+        <v>362</v>
       </c>
       <c r="G34">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H34">
-        <v>482</v>
+        <v>371</v>
       </c>
       <c r="I34" t="s">
         <v>40</v>
@@ -1608,28 +1554,28 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>35</v>
-      </c>
       <c r="C35">
-        <v>2754</v>
+        <v>3509</v>
       </c>
       <c r="D35">
-        <v>109.1016702977487</v>
+        <v>242.7329723567968</v>
       </c>
       <c r="E35">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F35">
-        <v>485</v>
+        <v>373</v>
       </c>
       <c r="G35">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H35">
-        <v>499</v>
+        <v>383</v>
       </c>
       <c r="I35" t="s">
         <v>41</v>
@@ -1637,28 +1583,28 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>36</v>
-      </c>
       <c r="C36">
-        <v>2007</v>
+        <v>2959</v>
       </c>
       <c r="D36">
-        <v>1.203288490284006</v>
+        <v>3.000337952010815</v>
       </c>
       <c r="E36">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F36">
-        <v>501</v>
+        <v>385</v>
       </c>
       <c r="G36">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H36">
-        <v>511</v>
+        <v>394</v>
       </c>
       <c r="I36" t="s">
         <v>42</v>
@@ -1666,28 +1612,28 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>37</v>
-      </c>
       <c r="C37">
-        <v>2807</v>
+        <v>3492</v>
       </c>
       <c r="D37">
-        <v>105.9918061987887</v>
+        <v>243.0753150057274</v>
       </c>
       <c r="E37">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F37">
-        <v>514</v>
+        <v>395</v>
       </c>
       <c r="G37">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H37">
-        <v>527</v>
+        <v>405</v>
       </c>
       <c r="I37" t="s">
         <v>43</v>
@@ -1695,28 +1641,28 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>38</v>
-      </c>
       <c r="C38">
-        <v>2045</v>
+        <v>2870</v>
       </c>
       <c r="D38">
-        <v>1.615647921760391</v>
+        <v>2.966202090592335</v>
       </c>
       <c r="E38">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F38">
-        <v>530</v>
+        <v>407</v>
       </c>
       <c r="G38">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H38">
-        <v>540</v>
+        <v>416</v>
       </c>
       <c r="I38" t="s">
         <v>44</v>
@@ -1724,28 +1670,28 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>39</v>
-      </c>
       <c r="C39">
-        <v>2624</v>
+        <v>3240</v>
       </c>
       <c r="D39">
-        <v>109.2621951219512</v>
+        <v>248.8885802469136</v>
       </c>
       <c r="E39">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F39">
-        <v>544</v>
+        <v>418</v>
       </c>
       <c r="G39">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H39">
-        <v>556</v>
+        <v>427</v>
       </c>
       <c r="I39" t="s">
         <v>45</v>
@@ -1753,28 +1699,28 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
       <c r="C40">
-        <v>2607</v>
+        <v>3780</v>
       </c>
       <c r="D40">
-        <v>107.5761411584196</v>
+        <v>247.202380952381</v>
       </c>
       <c r="E40">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F40">
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="G40">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H40">
-        <v>572</v>
+        <v>440</v>
       </c>
       <c r="I40" t="s">
         <v>46</v>
@@ -1782,28 +1728,28 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>41</v>
-      </c>
       <c r="C41">
-        <v>2070</v>
+        <v>2973</v>
       </c>
       <c r="D41">
-        <v>1.632367149758454</v>
+        <v>3.918264379414733</v>
       </c>
       <c r="E41">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F41">
-        <v>574</v>
+        <v>442</v>
       </c>
       <c r="G41">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H41">
-        <v>585</v>
+        <v>451</v>
       </c>
       <c r="I41" t="s">
         <v>47</v>
@@ -1811,28 +1757,28 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>42</v>
-      </c>
       <c r="C42">
-        <v>2547</v>
+        <v>3780</v>
       </c>
       <c r="D42">
-        <v>104.9968590498626</v>
+        <v>237.7391534391534</v>
       </c>
       <c r="E42">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F42">
-        <v>587</v>
+        <v>452</v>
       </c>
       <c r="G42">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H42">
-        <v>600</v>
+        <v>463</v>
       </c>
       <c r="I42" t="s">
         <v>48</v>
@@ -1840,28 +1786,28 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>43</v>
-      </c>
       <c r="C43">
-        <v>2095</v>
+        <v>2885</v>
       </c>
       <c r="D43">
-        <v>1.555131264916468</v>
+        <v>3.29948006932409</v>
       </c>
       <c r="E43">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F43">
-        <v>602</v>
+        <v>465</v>
       </c>
       <c r="G43">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H43">
-        <v>613</v>
+        <v>474</v>
       </c>
       <c r="I43" t="s">
         <v>49</v>
@@ -1869,28 +1815,28 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>44</v>
-      </c>
       <c r="C44">
-        <v>2465</v>
+        <v>3960</v>
       </c>
       <c r="D44">
-        <v>103.5817444219067</v>
+        <v>245.2992424242424</v>
       </c>
       <c r="E44">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F44">
-        <v>616</v>
+        <v>475</v>
       </c>
       <c r="G44">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H44">
-        <v>629</v>
+        <v>486</v>
       </c>
       <c r="I44" t="s">
         <v>50</v>
@@ -1898,28 +1844,28 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>45</v>
-      </c>
       <c r="C45">
-        <v>2135</v>
+        <v>3420</v>
       </c>
       <c r="D45">
-        <v>1.659016393442623</v>
+        <v>246.7245614035088</v>
       </c>
       <c r="E45">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F45">
-        <v>631</v>
+        <v>488</v>
       </c>
       <c r="G45">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H45">
-        <v>642</v>
+        <v>497</v>
       </c>
       <c r="I45" t="s">
         <v>51</v>
@@ -1927,28 +1873,28 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>46</v>
-      </c>
       <c r="C46">
-        <v>2447</v>
+        <v>2802</v>
       </c>
       <c r="D46">
-        <v>105.6358806702084</v>
+        <v>2.55174875089222</v>
       </c>
       <c r="E46">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F46">
-        <v>645</v>
+        <v>499</v>
       </c>
       <c r="G46">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H46">
-        <v>657</v>
+        <v>508</v>
       </c>
       <c r="I46" t="s">
         <v>52</v>
@@ -1956,28 +1902,28 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>47</v>
-      </c>
       <c r="C47">
-        <v>2794</v>
+        <v>3600</v>
       </c>
       <c r="D47">
-        <v>108.7687902648533</v>
+        <v>241.3447222222222</v>
       </c>
       <c r="E47">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F47">
-        <v>659</v>
+        <v>510</v>
       </c>
       <c r="G47">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H47">
-        <v>673</v>
+        <v>520</v>
       </c>
       <c r="I47" t="s">
         <v>53</v>
@@ -1985,28 +1931,28 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>48</v>
-      </c>
       <c r="C48">
-        <v>2039</v>
+        <v>2708</v>
       </c>
       <c r="D48">
-        <v>2.14271701814615</v>
+        <v>2.897341211225997</v>
       </c>
       <c r="E48">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F48">
-        <v>676</v>
+        <v>522</v>
       </c>
       <c r="G48">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H48">
-        <v>687</v>
+        <v>530</v>
       </c>
       <c r="I48" t="s">
         <v>54</v>
@@ -2014,28 +1960,28 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>49</v>
-      </c>
       <c r="C49">
-        <v>2754</v>
+        <v>3600</v>
       </c>
       <c r="D49">
-        <v>104.1717501815541</v>
+        <v>242.1980555555556</v>
       </c>
       <c r="E49">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F49">
-        <v>689</v>
+        <v>532</v>
       </c>
       <c r="G49">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H49">
-        <v>703</v>
+        <v>542</v>
       </c>
       <c r="I49" t="s">
         <v>55</v>
@@ -2043,28 +1989,28 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>50</v>
-      </c>
       <c r="C50">
-        <v>2189</v>
+        <v>2799</v>
       </c>
       <c r="D50">
-        <v>1.623572407492005</v>
+        <v>2.456234369417649</v>
       </c>
       <c r="E50">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F50">
-        <v>705</v>
+        <v>544</v>
       </c>
       <c r="G50">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H50">
-        <v>717</v>
+        <v>553</v>
       </c>
       <c r="I50" t="s">
         <v>56</v>
@@ -2072,28 +2018,28 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>51</v>
-      </c>
       <c r="C51">
-        <v>2831</v>
+        <v>3420</v>
       </c>
       <c r="D51">
-        <v>100.6064994701519</v>
+        <v>247.1426900584795</v>
       </c>
       <c r="E51">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F51">
-        <v>719</v>
+        <v>555</v>
       </c>
       <c r="G51">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H51">
-        <v>733</v>
+        <v>564</v>
       </c>
       <c r="I51" t="s">
         <v>57</v>
@@ -2101,28 +2047,28 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>52</v>
-      </c>
       <c r="C52">
-        <v>2509</v>
+        <v>3945</v>
       </c>
       <c r="D52">
-        <v>106.1952969310482</v>
+        <v>246.9852978453739</v>
       </c>
       <c r="E52">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F52">
-        <v>735</v>
+        <v>566</v>
       </c>
       <c r="G52">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H52">
-        <v>748</v>
+        <v>577</v>
       </c>
       <c r="I52" t="s">
         <v>58</v>
@@ -2130,28 +2076,28 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>53</v>
-      </c>
       <c r="C53">
-        <v>2135</v>
+        <v>2524</v>
       </c>
       <c r="D53">
-        <v>2.368149882903981</v>
+        <v>0.9766244057052298</v>
       </c>
       <c r="E53">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F53">
-        <v>751</v>
+        <v>579</v>
       </c>
       <c r="G53">
-        <v>441</v>
+        <v>266</v>
       </c>
       <c r="H53">
-        <v>762</v>
+        <v>587</v>
       </c>
       <c r="I53" t="s">
         <v>59</v>
@@ -2159,28 +2105,28 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>54</v>
-      </c>
       <c r="C54">
-        <v>2519</v>
+        <v>3765</v>
       </c>
       <c r="D54">
-        <v>101.3080587534736</v>
+        <v>242.4369189907038</v>
       </c>
       <c r="E54">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F54">
-        <v>763</v>
+        <v>589</v>
       </c>
       <c r="G54">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H54">
-        <v>776</v>
+        <v>600</v>
       </c>
       <c r="I54" t="s">
         <v>60</v>
@@ -2188,28 +2134,28 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>55</v>
-      </c>
       <c r="C55">
-        <v>2144</v>
+        <v>2838</v>
       </c>
       <c r="D55">
-        <v>2.090951492537314</v>
+        <v>2.598661028893587</v>
       </c>
       <c r="E55">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F55">
-        <v>779</v>
+        <v>602</v>
       </c>
       <c r="G55">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H55">
-        <v>791</v>
+        <v>610</v>
       </c>
       <c r="I55" t="s">
         <v>61</v>
@@ -2217,28 +2163,28 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>56</v>
-      </c>
       <c r="C56">
-        <v>2483</v>
+        <v>3820</v>
       </c>
       <c r="D56">
-        <v>98.54651631091421</v>
+        <v>246.3099476439791</v>
       </c>
       <c r="E56">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F56">
-        <v>792</v>
+        <v>612</v>
       </c>
       <c r="G56">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H56">
-        <v>805</v>
+        <v>623</v>
       </c>
       <c r="I56" t="s">
         <v>62</v>
@@ -2246,553 +2192,31 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>57</v>
-      </c>
       <c r="C57">
-        <v>2257</v>
+        <v>3253</v>
       </c>
       <c r="D57">
-        <v>1.893221089942401</v>
+        <v>249.6686135874577</v>
       </c>
       <c r="E57">
-        <v>342</v>
+        <v>200</v>
       </c>
       <c r="F57">
-        <v>808</v>
+        <v>624</v>
       </c>
       <c r="G57">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="H57">
-        <v>819</v>
+        <v>634</v>
       </c>
       <c r="I57" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>58</v>
-      </c>
-      <c r="C58">
-        <v>2338</v>
-      </c>
-      <c r="D58">
-        <v>97.84345594525236</v>
-      </c>
-      <c r="E58">
-        <v>342</v>
-      </c>
-      <c r="F58">
-        <v>821</v>
-      </c>
-      <c r="G58">
-        <v>441</v>
-      </c>
-      <c r="H58">
-        <v>833</v>
-      </c>
-      <c r="I58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>59</v>
-      </c>
-      <c r="C59">
-        <v>2824</v>
-      </c>
-      <c r="D59">
-        <v>104.4936260623229</v>
-      </c>
-      <c r="E59">
-        <v>342</v>
-      </c>
-      <c r="F59">
-        <v>835</v>
-      </c>
-      <c r="G59">
-        <v>441</v>
-      </c>
-      <c r="H59">
-        <v>849</v>
-      </c>
-      <c r="I59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>60</v>
-      </c>
-      <c r="C60">
-        <v>2102</v>
-      </c>
-      <c r="D60">
-        <v>2.083729781160799</v>
-      </c>
-      <c r="E60">
-        <v>342</v>
-      </c>
-      <c r="F60">
-        <v>851</v>
-      </c>
-      <c r="G60">
-        <v>441</v>
-      </c>
-      <c r="H60">
-        <v>862</v>
-      </c>
-      <c r="I60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>61</v>
-      </c>
-      <c r="C61">
-        <v>2699</v>
-      </c>
-      <c r="D61">
-        <v>98.72656539459059</v>
-      </c>
-      <c r="E61">
-        <v>342</v>
-      </c>
-      <c r="F61">
-        <v>865</v>
-      </c>
-      <c r="G61">
-        <v>441</v>
-      </c>
-      <c r="H61">
-        <v>878</v>
-      </c>
-      <c r="I61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>62</v>
-      </c>
-      <c r="C62">
-        <v>2263</v>
-      </c>
-      <c r="D62">
-        <v>1.914714980114892</v>
-      </c>
-      <c r="E62">
-        <v>342</v>
-      </c>
-      <c r="F62">
-        <v>881</v>
-      </c>
-      <c r="G62">
-        <v>441</v>
-      </c>
-      <c r="H62">
-        <v>893</v>
-      </c>
-      <c r="I62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>63</v>
-      </c>
-      <c r="C63">
-        <v>2547</v>
-      </c>
-      <c r="D63">
-        <v>96.70003926187671</v>
-      </c>
-      <c r="E63">
-        <v>342</v>
-      </c>
-      <c r="F63">
-        <v>894</v>
-      </c>
-      <c r="G63">
-        <v>441</v>
-      </c>
-      <c r="H63">
-        <v>907</v>
-      </c>
-      <c r="I63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>64</v>
-      </c>
-      <c r="C64">
-        <v>2509</v>
-      </c>
-      <c r="D64">
-        <v>100.9170984455959</v>
-      </c>
-      <c r="E64">
-        <v>342</v>
-      </c>
-      <c r="F64">
-        <v>909</v>
-      </c>
-      <c r="G64">
-        <v>441</v>
-      </c>
-      <c r="H64">
-        <v>923</v>
-      </c>
-      <c r="I64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>65</v>
-      </c>
-      <c r="C65">
-        <v>2239</v>
-      </c>
-      <c r="D65">
-        <v>1.860205448861099</v>
-      </c>
-      <c r="E65">
-        <v>342</v>
-      </c>
-      <c r="F65">
-        <v>924</v>
-      </c>
-      <c r="G65">
-        <v>441</v>
-      </c>
-      <c r="H65">
-        <v>936</v>
-      </c>
-      <c r="I65" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>66</v>
-      </c>
-      <c r="C66">
-        <v>2247</v>
-      </c>
-      <c r="D66">
-        <v>90.11748998664886</v>
-      </c>
-      <c r="E66">
-        <v>342</v>
-      </c>
-      <c r="F66">
-        <v>938</v>
-      </c>
-      <c r="G66">
-        <v>441</v>
-      </c>
-      <c r="H66">
-        <v>950</v>
-      </c>
-      <c r="I66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>67</v>
-      </c>
-      <c r="C67">
-        <v>2500</v>
-      </c>
-      <c r="D67">
-        <v>1.762</v>
-      </c>
-      <c r="E67">
-        <v>342</v>
-      </c>
-      <c r="F67">
-        <v>952</v>
-      </c>
-      <c r="G67">
-        <v>441</v>
-      </c>
-      <c r="H67">
-        <v>965</v>
-      </c>
-      <c r="I67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>68</v>
-      </c>
-      <c r="C68">
-        <v>2188</v>
-      </c>
-      <c r="D68">
-        <v>87.43281535648994</v>
-      </c>
-      <c r="E68">
-        <v>342</v>
-      </c>
-      <c r="F68">
-        <v>966</v>
-      </c>
-      <c r="G68">
-        <v>441</v>
-      </c>
-      <c r="H68">
-        <v>979</v>
-      </c>
-      <c r="I68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>69</v>
-      </c>
-      <c r="C69">
-        <v>2491</v>
-      </c>
-      <c r="D69">
-        <v>1.710959454034524</v>
-      </c>
-      <c r="E69">
-        <v>342</v>
-      </c>
-      <c r="F69">
-        <v>981</v>
-      </c>
-      <c r="G69">
-        <v>441</v>
-      </c>
-      <c r="H69">
-        <v>994</v>
-      </c>
-      <c r="I69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>70</v>
-      </c>
-      <c r="C70">
-        <v>2078</v>
-      </c>
-      <c r="D70">
-        <v>84.65591915303176</v>
-      </c>
-      <c r="E70">
-        <v>342</v>
-      </c>
-      <c r="F70">
-        <v>995</v>
-      </c>
-      <c r="G70">
-        <v>441</v>
-      </c>
-      <c r="H70">
-        <v>1007</v>
-      </c>
-      <c r="I70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>71</v>
-      </c>
-      <c r="C71">
-        <v>2997</v>
-      </c>
-      <c r="D71">
-        <v>89.29996663329996</v>
-      </c>
-      <c r="E71">
-        <v>342</v>
-      </c>
-      <c r="F71">
-        <v>1009</v>
-      </c>
-      <c r="G71">
-        <v>441</v>
-      </c>
-      <c r="H71">
-        <v>1023</v>
-      </c>
-      <c r="I71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>72</v>
-      </c>
-      <c r="C72">
-        <v>2689</v>
-      </c>
-      <c r="D72">
-        <v>1.560431387132763</v>
-      </c>
-      <c r="E72">
-        <v>342</v>
-      </c>
-      <c r="F72">
-        <v>1026</v>
-      </c>
-      <c r="G72">
-        <v>441</v>
-      </c>
-      <c r="H72">
-        <v>1039</v>
-      </c>
-      <c r="I72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>73</v>
-      </c>
-      <c r="C73">
-        <v>2266</v>
-      </c>
-      <c r="D73">
-        <v>79.69064430714916</v>
-      </c>
-      <c r="E73">
-        <v>342</v>
-      </c>
-      <c r="F73">
-        <v>1040</v>
-      </c>
-      <c r="G73">
-        <v>441</v>
-      </c>
-      <c r="H73">
-        <v>1053</v>
-      </c>
-      <c r="I73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>74</v>
-      </c>
-      <c r="C74">
-        <v>2705</v>
-      </c>
-      <c r="D74">
-        <v>1.453974121996303</v>
-      </c>
-      <c r="E74">
-        <v>342</v>
-      </c>
-      <c r="F74">
-        <v>1055</v>
-      </c>
-      <c r="G74">
-        <v>441</v>
-      </c>
-      <c r="H74">
-        <v>1070</v>
-      </c>
-      <c r="I74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>75</v>
-      </c>
-      <c r="C75">
-        <v>2089</v>
-      </c>
-      <c r="D75">
-        <v>79.4552417424605</v>
-      </c>
-      <c r="E75">
-        <v>342</v>
-      </c>
-      <c r="F75">
-        <v>1069</v>
-      </c>
-      <c r="G75">
-        <v>441</v>
-      </c>
-      <c r="H75">
-        <v>1082</v>
-      </c>
-      <c r="I75" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
